--- a/results_groningen.xlsx
+++ b/results_groningen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Postcode</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Area (km2)</t>
+  </si>
+  <si>
+    <t>Number of cyclists</t>
   </si>
   <si>
     <t>Beardwood approx</t>
@@ -569,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,13 +615,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1286</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1531</v>
@@ -627,39 +633,42 @@
         <v>0.8166600201901988</v>
       </c>
       <c r="E2">
-        <v>4.695430877253695</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2">
-        <v>8.427904490360207</v>
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>9.390861754507389</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>11.28464125813341</v>
+        <v>13.1233353676139</v>
       </c>
       <c r="I2">
-        <v>9.111200772307942</v>
+        <v>15.9800721353871</v>
       </c>
       <c r="J2">
-        <v>7.257865844579532</v>
+        <v>13.80663164956164</v>
       </c>
       <c r="K2">
-        <v>8.427904490360207</v>
+        <v>11.95329672183323</v>
       </c>
       <c r="L2">
-        <v>8.427904490360207</v>
+        <v>13.1233353676139</v>
       </c>
       <c r="M2">
-        <v>7.257865844579532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.1233353676139</v>
+      </c>
+      <c r="N2">
+        <v>11.95329672183323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>12323</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1795</v>
@@ -668,39 +677,42 @@
         <v>0.9325520610180636</v>
       </c>
       <c r="E3">
-        <v>5.432953378228111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <v>10.70823625048676</v>
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>10.86590675645622</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>10.6574273496331</v>
+        <v>16.14118962871487</v>
       </c>
       <c r="I3">
-        <v>9.676282969202239</v>
+        <v>16.09038072786122</v>
       </c>
       <c r="J3">
-        <v>8.712093191473317</v>
+        <v>15.10923634743035</v>
       </c>
       <c r="K3">
-        <v>10.6574273496331</v>
+        <v>14.14504656970143</v>
       </c>
       <c r="L3">
-        <v>9.676282969202239</v>
+        <v>16.09038072786122</v>
       </c>
       <c r="M3">
-        <v>8.712093191473317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.10923634743035</v>
+      </c>
+      <c r="N3">
+        <v>14.14504656970143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>9331</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1850</v>
@@ -709,39 +721,42 @@
         <v>1.926601613583253</v>
       </c>
       <c r="E4">
-        <v>7.927733322821537</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4">
-        <v>10.29318485857609</v>
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>15.85546664564307</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>15.74268198625671</v>
+        <v>18.22091818139762</v>
       </c>
       <c r="I4">
-        <v>10.91488460458072</v>
+        <v>23.67041530907824</v>
       </c>
       <c r="J4">
-        <v>13.32177692657799</v>
+        <v>18.84261792740226</v>
       </c>
       <c r="K4">
-        <v>10.29318485857609</v>
+        <v>21.24951024939953</v>
       </c>
       <c r="L4">
-        <v>10.29318485857609</v>
+        <v>18.22091818139762</v>
       </c>
       <c r="M4">
-        <v>10.29318485857609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>18.22091818139762</v>
+      </c>
+      <c r="N4">
+        <v>18.22091818139762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>5513</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1008</v>
@@ -750,39 +765,42 @@
         <v>0.5533750706487414</v>
       </c>
       <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
         <v>3.136225415326359</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5">
         <v>8.556794900116969</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.633011432131386</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.191271533948941</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>8.345898357275617</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8.556794900116969</v>
-      </c>
-      <c r="L5">
-        <v>5.191271533948941</v>
       </c>
       <c r="M5">
         <v>5.191271533948941</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>5.191271533948941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>11181</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>674</v>
@@ -791,39 +809,42 @@
         <v>0.6670594406566096</v>
       </c>
       <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
         <v>2.815654899121171</v>
       </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6">
         <v>9.243893719277828</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9.214717529855234</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.466746066434247</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>8.068587030542647</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>9.214717529855234</v>
-      </c>
-      <c r="L6">
-        <v>4.466746066434247</v>
       </c>
       <c r="M6">
         <v>4.466746066434247</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>4.466746066434247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>18673</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>355</v>
@@ -832,39 +853,42 @@
         <v>0.5641105681092621</v>
       </c>
       <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>1.879158891082913</v>
       </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
         <v>10.10497445935645</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.863872996607439</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.599676241265683</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7.435833646185892</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7.863872996607439</v>
-      </c>
-      <c r="L7">
-        <v>3.599676241265683</v>
       </c>
       <c r="M7">
         <v>3.599676241265683</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>3.599676241265683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>3287</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>629</v>
@@ -873,25 +897,25 @@
         <v>0.6109330181646594</v>
       </c>
       <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8">
         <v>2.603090876868797</v>
       </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8">
         <v>10.87090605329017</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.662571090712819</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6.992929361229285</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6.270273649981501</v>
-      </c>
-      <c r="K8">
-        <v>5.662571090712819</v>
       </c>
       <c r="L8">
         <v>5.662571090712819</v>
@@ -899,13 +923,16 @@
       <c r="M8">
         <v>5.662571090712819</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>5.662571090712819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8230</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1101</v>
@@ -914,25 +941,25 @@
         <v>0.849269686389478</v>
       </c>
       <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
         <v>4.060538938671964</v>
       </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9">
         <v>11.79226897233862</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.006144395444169</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10.25093940703478</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6.619776149565427</v>
-      </c>
-      <c r="K9">
-        <v>6.006144395444169</v>
       </c>
       <c r="L9">
         <v>6.006144395444169</v>
@@ -940,13 +967,16 @@
       <c r="M9">
         <v>6.006144395444169</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>6.006144395444169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>4445</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>1068</v>
@@ -955,39 +985,42 @@
         <v>2.33225334605605</v>
       </c>
       <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
         <v>6.627362063013154</v>
       </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10">
         <v>10.8524434457488</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>15.21346340404527</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>14.62640937985909</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>7.923089936062437</v>
-      </c>
-      <c r="K10">
-        <v>10.8524434457488</v>
       </c>
       <c r="L10">
         <v>10.8524434457488</v>
       </c>
       <c r="M10">
+        <v>10.8524434457488</v>
+      </c>
+      <c r="N10">
         <v>7.923089936062437</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>6521</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>942</v>
@@ -996,25 +1029,25 @@
         <v>1.947917420245176</v>
       </c>
       <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
         <v>5.688240246396465</v>
       </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
         <v>7.606486854509594</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>15.96583192763876</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>13.32913680461426</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9.661222325013419</v>
-      </c>
-      <c r="K11">
-        <v>7.606486854509594</v>
       </c>
       <c r="L11">
         <v>7.606486854509594</v>
@@ -1022,13 +1055,16 @@
       <c r="M11">
         <v>7.606486854509594</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>7.606486854509594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>7463</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>767</v>
@@ -1037,25 +1073,25 @@
         <v>17.02644194156905</v>
       </c>
       <c r="E12">
+        <v>26</v>
+      </c>
+      <c r="F12">
         <v>15.17493507146796</v>
       </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12">
         <v>15.17493507146796</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>25.16825263321127</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>20.91279466492441</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>20.27995252561988</v>
-      </c>
-      <c r="K12">
-        <v>15.17493507146796</v>
       </c>
       <c r="L12">
         <v>15.17493507146796</v>
@@ -1063,13 +1099,16 @@
       <c r="M12">
         <v>15.17493507146796</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>15.17493507146796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>2817</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>470</v>
@@ -1078,25 +1117,25 @@
         <v>0.4145760562191667</v>
       </c>
       <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
         <v>1.853609495531816</v>
       </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13">
         <v>4.657014784662911</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>10.72542064475142</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>7.803689666574703</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>5.642468860472807</v>
-      </c>
-      <c r="K13">
-        <v>4.657014784662911</v>
       </c>
       <c r="L13">
         <v>4.657014784662911</v>
@@ -1104,13 +1143,16 @@
       <c r="M13">
         <v>4.657014784662911</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>4.657014784662911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>16688</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>566</v>
@@ -1119,39 +1161,42 @@
         <v>0.6986477058720977</v>
       </c>
       <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
         <v>2.640611698110801</v>
       </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14">
         <v>6.243926169697461</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9.606083822794648</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>9.579965751951345</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.428731474846954</v>
-      </c>
-      <c r="K14">
-        <v>6.243926169697461</v>
       </c>
       <c r="L14">
         <v>6.243926169697461</v>
       </c>
       <c r="M14">
+        <v>6.243926169697461</v>
+      </c>
+      <c r="N14">
         <v>4.428731474846954</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>481</v>
@@ -1160,39 +1205,42 @@
         <v>0.6011530990375028</v>
       </c>
       <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
         <v>2.258043436967748</v>
       </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
         <v>7.501868843374613</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5.958859932204025</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8.846484797353762</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4.197285193301175</v>
-      </c>
-      <c r="K15">
-        <v>5.958859932204025</v>
       </c>
       <c r="L15">
         <v>5.958859932204025</v>
       </c>
       <c r="M15">
+        <v>5.958859932204025</v>
+      </c>
+      <c r="N15">
         <v>4.197285193301175</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>15352</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>597</v>
@@ -1201,39 +1249,42 @@
         <v>3.292695201399932</v>
       </c>
       <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
         <v>5.887489418645033</v>
       </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16">
         <v>12.53092934659945</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>8.936332585694117</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>13.43088498163899</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5.937678616000616</v>
-      </c>
-      <c r="K16">
-        <v>8.936332585694117</v>
       </c>
       <c r="L16">
         <v>8.936332585694117</v>
       </c>
       <c r="M16">
+        <v>8.936332585694117</v>
+      </c>
+      <c r="N16">
         <v>5.937678616000616</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>17580</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>1093</v>
@@ -1242,39 +1293,42 @@
         <v>4.241345222656165</v>
       </c>
       <c r="E17">
+        <v>37</v>
+      </c>
+      <c r="F17">
         <v>9.041262971702066</v>
       </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17">
         <v>15.79723516490112</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>14.82062184460332</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>17.97363299634181</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9.041262971702066</v>
-      </c>
-      <c r="K17">
-        <v>14.82062184460332</v>
       </c>
       <c r="L17">
         <v>14.82062184460332</v>
       </c>
       <c r="M17">
+        <v>14.82062184460332</v>
+      </c>
+      <c r="N17">
         <v>9.041262971702066</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>481</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>805</v>
@@ -1283,39 +1337,42 @@
         <v>3.213629646314175</v>
       </c>
       <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
         <v>6.754031183262975</v>
       </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18">
         <v>9.243393137679945</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>15.26092805451217</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7.1183136852412</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>14.709441963184</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>9.243393137679945</v>
-      </c>
-      <c r="L18">
-        <v>7.1183136852412</v>
       </c>
       <c r="M18">
         <v>7.1183136852412</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>7.1183136852412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>14920</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>432</v>
@@ -1324,25 +1381,25 @@
         <v>1.043544191328674</v>
       </c>
       <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
         <v>2.819450696831798</v>
       </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
         <v>7.457533140186555</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>18.11540462083233</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>9.043420160393557</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>14.59290669328305</v>
-      </c>
-      <c r="K19">
-        <v>7.457533140186555</v>
       </c>
       <c r="L19">
         <v>7.457533140186555</v>
@@ -1350,13 +1407,16 @@
       <c r="M19">
         <v>7.457533140186555</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>7.457533140186555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>19575</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>198</v>
@@ -1365,25 +1425,25 @@
         <v>0.588166351935652</v>
       </c>
       <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
         <v>1.433012212490925</v>
       </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20">
         <v>7.45691860299807</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>18.40836407414753</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9.144195631987465</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>14.76408474987741</v>
-      </c>
-      <c r="K20">
-        <v>7.45691860299807</v>
       </c>
       <c r="L20">
         <v>7.45691860299807</v>
@@ -1391,13 +1451,16 @@
       <c r="M20">
         <v>7.45691860299807</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>7.45691860299807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>17254</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>326</v>
@@ -1406,25 +1469,25 @@
         <v>3.140653516775146</v>
       </c>
       <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
         <v>4.248993063389415</v>
       </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21">
         <v>8.520524630193563</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20.8406294450221</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>10.83777288171614</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>16.59695849785707</v>
-      </c>
-      <c r="K21">
-        <v>8.520524630193563</v>
       </c>
       <c r="L21">
         <v>8.520524630193563</v>
@@ -1432,13 +1495,16 @@
       <c r="M21">
         <v>8.520524630193563</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>8.520524630193563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>19537</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>38</v>
@@ -1447,39 +1513,42 @@
         <v>1.37095343675433</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>0.9584519808113416</v>
       </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22">
         <v>6.101964003228371</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>13.40212559312036</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.882761454601535</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>11.17919999356382</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>6.101964003228371</v>
-      </c>
-      <c r="L22">
-        <v>3.882761454601535</v>
       </c>
       <c r="M22">
         <v>3.882761454601535</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>3.882761454601535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>19028</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>509</v>
@@ -1488,39 +1557,42 @@
         <v>0.9335116886215373</v>
       </c>
       <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
         <v>2.894582818472717</v>
       </c>
-      <c r="F23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23">
         <v>9.698049781457616</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>16.93087901029398</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>6.810397820782773</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>14.99824790515992</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>9.698049781457616</v>
-      </c>
-      <c r="L23">
-        <v>6.810397820782773</v>
       </c>
       <c r="M23">
         <v>6.810397820782773</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>6.810397820782773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>11855</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>468</v>
@@ -1529,39 +1601,42 @@
         <v>1.209471293592595</v>
       </c>
       <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
         <v>3.159278541572986</v>
       </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24">
         <v>9.587815943728501</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>14.42993003774181</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>4.252360380696315</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>13.33058255012821</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>9.587815943728501</v>
-      </c>
-      <c r="L24">
-        <v>4.252360380696315</v>
       </c>
       <c r="M24">
         <v>4.252360380696315</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>4.252360380696315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>3916</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>529</v>
@@ -1570,39 +1645,42 @@
         <v>1.421719043424204</v>
       </c>
       <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
         <v>3.641681291339998</v>
       </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25">
         <v>12.56707450196411</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7.351847354842453</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>6.958753452179085</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>8.655011312776001</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>7.351847354842453</v>
-      </c>
-      <c r="L25">
-        <v>6.958753452179085</v>
       </c>
       <c r="M25">
         <v>6.958753452179085</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>6.958753452179085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>14118</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>802</v>
@@ -1611,25 +1689,25 @@
         <v>1.197749148496547</v>
       </c>
       <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
         <v>4.115639513865972</v>
       </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26">
         <v>14.07041640785822</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5.715464728073043</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>10.13847775430719</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>8.91317022043385</v>
-      </c>
-      <c r="K26">
-        <v>5.715464728073043</v>
       </c>
       <c r="L26">
         <v>5.715464728073043</v>
@@ -1637,13 +1715,16 @@
       <c r="M26">
         <v>5.715464728073043</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>5.715464728073043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>15949</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>739</v>
@@ -1652,25 +1733,25 @@
         <v>2.794135432264962</v>
       </c>
       <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
         <v>6.034109044067108</v>
       </c>
-      <c r="F27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27">
         <v>16.18123973058984</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>6.034109044067108</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>14.01433883581564</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>8.548150791051373</v>
-      </c>
-      <c r="K27">
-        <v>6.034109044067108</v>
       </c>
       <c r="L27">
         <v>6.034109044067108</v>
@@ -1678,13 +1759,16 @@
       <c r="M27">
         <v>6.034109044067108</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>6.034109044067108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>19773</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>40</v>
@@ -1693,30 +1777,33 @@
         <v>2.646747096161394</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>1.366323150585482</v>
       </c>
-      <c r="F28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28">
         <v>12.31619917437544</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3.270231041683904</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6.204140277130806</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>8.859464871587361</v>
-      </c>
-      <c r="K28">
-        <v>3.270231041683904</v>
       </c>
       <c r="L28">
         <v>3.270231041683904</v>
       </c>
       <c r="M28">
+        <v>3.270231041683904</v>
+      </c>
+      <c r="N28">
         <v>3.270231041683904</v>
       </c>
     </row>
